--- a/1_Spreadsheets_Intro/1_Worksheets/1_Overview.xlsx
+++ b/1_Spreadsheets_Intro/1_Worksheets/1_Overview.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\1_Basics\1_Spreadsheets_Intro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\1_Spreadsheets_Intro\1_Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C95097-CF98-4CD5-A5B0-9C4685FAE078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081CFE5F-E94C-4D8F-8143-211EC5794CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D15BFCA0-C9DE-46D7-84D4-5CA68B4322C1}"/>
+    <workbookView xWindow="31590" yWindow="2265" windowWidth="18330" windowHeight="8355" xr2:uid="{D15BFCA0-C9DE-46D7-84D4-5CA68B4322C1}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="2_First_Worksheet_Org" sheetId="2" r:id="rId2"/>
-    <sheet name="2_First_Worksheet_Final" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Cell</t>
   </si>
@@ -70,45 +68,13 @@
       <t>↕</t>
     </r>
   </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Shirt</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>Pants</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Sold Date</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -141,14 +107,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,14 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7C4F8B-A04D-47EC-ACB1-555F7D06F2D7}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +481,7 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -536,7 +490,7 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
@@ -550,176 +504,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD01CE1-447B-4580-AD72-8A7C73FE71DB}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45479</v>
-      </c>
-      <c r="E2">
-        <f>B2*C2</f>
-        <v>50</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45477</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="0">B3*C3</f>
-        <v>140</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>46573</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F162AAF8-2073-4780-B9E7-D89B3B9F9DBA}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45479</v>
-      </c>
-      <c r="E2">
-        <f>B2*C2</f>
-        <v>60</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45477</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="0">B3*C3</f>
-        <v>140</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>